--- a/bin/DD_Properties/excel_sheet_google.xlsx
+++ b/bin/DD_Properties/excel_sheet_google.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -152,13 +152,22 @@
     <t>Bcc_mailid</t>
   </si>
   <si>
-    <t>mkolsure7@gmail.com</t>
-  </si>
-  <si>
     <t>agarkarswapnil9999@gmail.com</t>
   </si>
   <si>
     <t>gd.pawale@gmail.com</t>
+  </si>
+  <si>
+    <t>Subject_text</t>
+  </si>
+  <si>
+    <t>Test email</t>
+  </si>
+  <si>
+    <t>Message_body_text</t>
+  </si>
+  <si>
+    <t>Regards,Ganesh Pawale</t>
   </si>
 </sst>
 </file>
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,9 +773,11 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -785,8 +796,14 @@
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -797,21 +814,27 @@
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
